--- a/server/data.xlsx
+++ b/server/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\Desktop\8й семестр\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\Desktop\diplom\bunker-online\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151CF78D-24B5-4D9F-B3A4-AC7B551F822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F291997-D0C8-4DF1-9E65-FCFDF772D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7FB2F51C-AD1C-4C17-9F55-D0132A30F6CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FB2F51C-AD1C-4C17-9F55-D0132A30F6CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Характеристики" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="382">
   <si>
     <t>Профессия</t>
   </si>
@@ -743,9 +743,6 @@
     <t>Бункер строили заключенные. Жуткий запах привел вас в подвал, где вы нашли их останки, инструменты и оружие охранников - дубинки, ножи</t>
   </si>
   <si>
-    <t>Лауреат двух нобелевских премий(И в науке, и в литературе)</t>
-  </si>
-  <si>
     <t>Логист</t>
   </si>
   <si>
@@ -851,33 +848,15 @@
     <t>Нет фобии</t>
   </si>
   <si>
-    <t>Аэрофобия(боязнь перелетов на самолете)</t>
-  </si>
-  <si>
-    <t>Токсикофобия(боязнь отравления)</t>
-  </si>
-  <si>
-    <t>Акрофобия(боязнь высоты)</t>
-  </si>
-  <si>
-    <t>Трискайдекафобия(боянь числа 13)</t>
-  </si>
-  <si>
     <t>Геронтофобия(страх старения)</t>
   </si>
   <si>
-    <t>Селфифобия(страх фотографирования)</t>
-  </si>
-  <si>
     <t>Астрапофобия(боязнь грозы)</t>
   </si>
   <si>
     <t>Копрофобия(боязнь говна)</t>
   </si>
   <si>
-    <t>Демофобия(боязнь толпы)</t>
-  </si>
-  <si>
     <t>Гемофобия(страх крови)</t>
   </si>
   <si>
@@ -923,18 +902,9 @@
     <t>Эргофобия(боязнь работы)</t>
   </si>
   <si>
-    <t>Гомицидофобия(боязнь убить человека)</t>
-  </si>
-  <si>
-    <t>Тафефобия(боязнь быть похороненным заживо)</t>
-  </si>
-  <si>
     <t>Ситофобия(страх принятия пищи)</t>
   </si>
   <si>
-    <t>Талассофобия(боязнь воды)</t>
-  </si>
-  <si>
     <t>Социофобия(боязнь контакта с людьми)</t>
   </si>
   <si>
@@ -980,9 +950,6 @@
     <t>Имеет второе высшее(специальное) образование</t>
   </si>
   <si>
-    <t>Здесь роллится вторая профессия, без стажа работы, прописано в строчке этого факта</t>
-  </si>
-  <si>
     <t>Выпускник Гарварда</t>
   </si>
   <si>
@@ -1019,9 +986,6 @@
     <t>Красный диплом</t>
   </si>
   <si>
-    <t>Здесь роллится вторая профессия, без стажа работы, прописано в строчке этого багажа</t>
-  </si>
-  <si>
     <t>Набор для рыбалки</t>
   </si>
   <si>
@@ -1104,6 +1068,111 @@
   </si>
   <si>
     <t>Поменяйтесь открытыми картами багажа с другим игроком</t>
+  </si>
+  <si>
+    <t>Подсказка</t>
+  </si>
+  <si>
+    <t>Может вылечить любого игрока в бункере от любого заболевания(включая себя).</t>
+  </si>
+  <si>
+    <t>Может вылечить от фобии любого игрока в бункере(включая себя)</t>
+  </si>
+  <si>
+    <t>Сильно повышает шансы найти еду в бункере и после выхода из него</t>
+  </si>
+  <si>
+    <t>Доктор наук в одной из гуманитарных и в одной из технических отраслей</t>
+  </si>
+  <si>
+    <t>Трискайдекафобия</t>
+  </si>
+  <si>
+    <t>Акрофобия</t>
+  </si>
+  <si>
+    <t>Тафефобия</t>
+  </si>
+  <si>
+    <t>Селфифобия</t>
+  </si>
+  <si>
+    <t>Токсикофобия</t>
+  </si>
+  <si>
+    <t>Талассофобия</t>
+  </si>
+  <si>
+    <t>Аэрофобия</t>
+  </si>
+  <si>
+    <t>боянь числа 13</t>
+  </si>
+  <si>
+    <t>боязнь высоты</t>
+  </si>
+  <si>
+    <t>боязнь быть похороненным заживо</t>
+  </si>
+  <si>
+    <t>страх фотографирования</t>
+  </si>
+  <si>
+    <t>боязнь отравления</t>
+  </si>
+  <si>
+    <t>боязнь воды</t>
+  </si>
+  <si>
+    <t>боязнь перелетов на самолете</t>
+  </si>
+  <si>
+    <t>Демофобия</t>
+  </si>
+  <si>
+    <t>боязнь толпы</t>
+  </si>
+  <si>
+    <t>Гомицидофобия</t>
+  </si>
+  <si>
+    <t>боязнь убить человека</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Ы</t>
+  </si>
+  <si>
+    <t>Кто я</t>
+  </si>
+  <si>
+    <t>Кхе-кхе</t>
+  </si>
+  <si>
+    <t>Идет в комплекте со всем необходимым + детскими лекарствами и питанием на срок пребывания в бункере</t>
+  </si>
+  <si>
+    <t>Этот товарищ на кого-то выучился в топовом вузе, на кого-не говорит, но специальность нормальная</t>
+  </si>
+  <si>
+    <t>Этот товарищ на кого-то выучился в хорошем вузе, на кого-не говорит, но специальность нормальная</t>
+  </si>
+  <si>
+    <t>Лауреат двух нобелевских премий</t>
+  </si>
+  <si>
+    <t>в одной из гуманитарных и в одной из технических сфер</t>
+  </si>
+  <si>
+    <t>Зарежу нахуй ы</t>
+  </si>
+  <si>
+    <t>За генеральские котлы</t>
+  </si>
+  <si>
+    <t>А твое какое дело, дружок</t>
   </si>
 </sst>
 </file>
@@ -1632,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E111100A-0407-49EE-A2CA-116D230DF8AF}">
   <dimension ref="A1:I287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G97" sqref="G96:G97"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E279" sqref="E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1641,7 +1710,7 @@
     <col min="1" max="16384" width="20.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1651,8 +1720,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,8 +1734,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,8 +1748,11 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1763,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1696,29 +1774,29 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1729,29 +1807,29 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1840,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1851,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1862,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,18 +1873,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="1">
         <v>0.65</v>
@@ -1888,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="1">
         <v>0.65</v>
@@ -1899,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="1">
         <v>0.6</v>
@@ -1932,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="1">
         <v>0.6</v>
@@ -1943,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="1">
         <v>0.55000000000000004</v>
@@ -1965,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="1">
         <v>0.55000000000000004</v>
@@ -1987,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="1">
         <v>0.55000000000000004</v>
@@ -2075,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" s="1">
         <v>0.35</v>
@@ -2130,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C45" s="1">
         <v>0.25</v>
@@ -2141,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C46" s="1">
         <v>0.25</v>
@@ -2152,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="1">
         <v>0.2</v>
@@ -2196,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C51" s="1">
         <v>0.15</v>
@@ -2240,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C55" s="1">
         <v>0.1</v>
@@ -2251,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" s="1">
         <v>0.1</v>
@@ -2262,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C57" s="1">
         <v>0.1</v>
@@ -2521,7 +2599,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>4</v>
       </c>
@@ -2532,7 +2610,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2621,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>4</v>
       </c>
@@ -2554,7 +2632,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>4</v>
       </c>
@@ -2565,7 +2643,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>4</v>
       </c>
@@ -2576,7 +2654,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>4</v>
       </c>
@@ -2587,7 +2665,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2676,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>4</v>
       </c>
@@ -2609,7 +2687,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>4</v>
       </c>
@@ -2620,7 +2698,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>4</v>
       </c>
@@ -2631,7 +2709,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2642,7 +2720,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>4</v>
       </c>
@@ -2653,7 +2731,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>4</v>
       </c>
@@ -2664,7 +2742,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>4</v>
       </c>
@@ -2675,7 +2753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>4</v>
       </c>
@@ -2686,7 +2764,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -2695,6 +2773,9 @@
       </c>
       <c r="C96" s="1">
         <v>0.05</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2707,6 +2788,9 @@
       <c r="C97" s="1">
         <v>0.05</v>
       </c>
+      <c r="D97" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -2718,6 +2802,9 @@
       <c r="C98" s="1">
         <v>0.05</v>
       </c>
+      <c r="D98" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
@@ -2729,6 +2816,9 @@
       <c r="C99" s="1">
         <v>0.05</v>
       </c>
+      <c r="D99" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -2740,19 +2830,22 @@
       <c r="C100" s="1">
         <v>0.05</v>
       </c>
+      <c r="D100" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C101" s="1">
         <v>1.25</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
@@ -2771,7 +2864,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
@@ -2786,7 +2879,7 @@
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
@@ -2801,7 +2894,7 @@
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
@@ -2816,19 +2909,19 @@
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2836,12 +2929,14 @@
         <v>6</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
       </c>
-      <c r="D106" s="13"/>
+      <c r="D106" s="13" t="s">
+        <v>351</v>
+      </c>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
@@ -2857,7 +2952,9 @@
       <c r="C107" s="1">
         <v>1</v>
       </c>
-      <c r="D107" s="13"/>
+      <c r="D107" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
@@ -2873,7 +2970,9 @@
       <c r="C108" s="1">
         <v>1</v>
       </c>
-      <c r="D108" s="13"/>
+      <c r="D108" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
@@ -3275,7 +3374,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>6</v>
       </c>
@@ -3286,166 +3385,193 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>277</v>
+        <v>352</v>
       </c>
       <c r="C151" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="C152" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D152" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="C153" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="C154" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="C155" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D155" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>301</v>
+        <v>357</v>
       </c>
       <c r="C156" s="1">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D156" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="C157" s="1">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="C158" s="1">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="C159" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C160" s="1">
         <v>0.7</v>
@@ -3453,10 +3579,10 @@
     </row>
     <row r="161" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C161" s="1">
         <v>0.65</v>
@@ -3464,10 +3590,10 @@
     </row>
     <row r="162" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C162" s="1">
         <v>0.6</v>
@@ -3475,10 +3601,10 @@
     </row>
     <row r="163" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C163" s="1">
         <v>0.55000000000000004</v>
@@ -3486,10 +3612,10 @@
     </row>
     <row r="164" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C164" s="1">
         <v>0.5</v>
@@ -3497,10 +3623,10 @@
     </row>
     <row r="165" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C165" s="1">
         <v>0.5</v>
@@ -3508,10 +3634,10 @@
     </row>
     <row r="166" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C166" s="1">
         <v>0.45</v>
@@ -3519,10 +3645,10 @@
     </row>
     <row r="167" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C167" s="1">
         <v>0.4</v>
@@ -3530,10 +3656,10 @@
     </row>
     <row r="168" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C168" s="1">
         <v>0.4</v>
@@ -3541,10 +3667,10 @@
     </row>
     <row r="169" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C169" s="1">
         <v>0.35</v>
@@ -3552,10 +3678,10 @@
     </row>
     <row r="170" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C170" s="1">
         <v>0.3</v>
@@ -3563,10 +3689,10 @@
     </row>
     <row r="171" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C171" s="1">
         <v>0.3</v>
@@ -3574,10 +3700,10 @@
     </row>
     <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C172" s="1">
         <v>0.3</v>
@@ -3585,10 +3711,10 @@
     </row>
     <row r="173" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C173" s="1">
         <v>0.3</v>
@@ -3596,10 +3722,10 @@
     </row>
     <row r="174" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C174" s="1">
         <v>0.3</v>
@@ -3607,10 +3733,10 @@
     </row>
     <row r="175" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C175" s="1">
         <v>0.25</v>
@@ -3618,10 +3744,10 @@
     </row>
     <row r="176" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C176" s="1">
         <v>0.2</v>
@@ -3629,10 +3755,10 @@
     </row>
     <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C177" s="1">
         <v>0.2</v>
@@ -3640,10 +3766,10 @@
     </row>
     <row r="178" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C178" s="1">
         <v>0.2</v>
@@ -3651,10 +3777,10 @@
     </row>
     <row r="179" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C179" s="1">
         <v>0.2</v>
@@ -3662,10 +3788,10 @@
     </row>
     <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C180" s="1">
         <v>0.2</v>
@@ -3673,10 +3799,10 @@
     </row>
     <row r="181" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C181" s="1">
         <v>0.15</v>
@@ -3684,10 +3810,10 @@
     </row>
     <row r="182" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C182" s="1">
         <v>0.15</v>
@@ -3695,10 +3821,10 @@
     </row>
     <row r="183" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C183" s="1">
         <v>0.15</v>
@@ -3706,10 +3832,10 @@
     </row>
     <row r="184" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C184" s="1">
         <v>0.15</v>
@@ -3717,10 +3843,10 @@
     </row>
     <row r="185" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C185" s="1">
         <v>0.1</v>
@@ -3728,10 +3854,10 @@
     </row>
     <row r="186" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C186" s="1">
         <v>0.1</v>
@@ -3739,10 +3865,10 @@
     </row>
     <row r="187" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C187" s="1">
         <v>0.1</v>
@@ -3750,13 +3876,16 @@
     </row>
     <row r="188" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="C188" s="1">
         <v>0</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,6 +3898,9 @@
       <c r="C189" s="1">
         <v>1.1499999999999999</v>
       </c>
+      <c r="D189" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="190" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
@@ -3797,16 +3929,16 @@
         <v>7</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
       </c>
-      <c r="D192" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
+      <c r="D192" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
     </row>
     <row r="193" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
@@ -3879,7 +4011,7 @@
         <v>7</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C199" s="1">
         <v>0.8</v>
@@ -3923,7 +4055,7 @@
         <v>7</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C203" s="1">
         <v>0.7</v>
@@ -3967,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C207" s="1">
         <v>0.7</v>
@@ -4088,7 +4220,7 @@
         <v>7</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C218" s="1">
         <v>0.6</v>
@@ -4099,7 +4231,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C219" s="1">
         <v>0.6</v>
@@ -4121,7 +4253,7 @@
         <v>7</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C221" s="1">
         <v>0.6</v>
@@ -4198,7 +4330,7 @@
         <v>7</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C228" s="1">
         <v>0.55000000000000004</v>
@@ -4220,7 +4352,7 @@
         <v>7</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C230" s="1">
         <v>0.55000000000000004</v>
@@ -4242,7 +4374,7 @@
         <v>7</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C232" s="1">
         <v>0.5</v>
@@ -4253,7 +4385,7 @@
         <v>7</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C233" s="1">
         <v>0.5</v>
@@ -4286,7 +4418,7 @@
         <v>7</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C236" s="1">
         <v>0.45</v>
@@ -4319,7 +4451,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C239" s="1">
         <v>0.4</v>
@@ -4341,7 +4473,7 @@
         <v>7</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C241" s="1">
         <v>0.4</v>
@@ -4407,7 +4539,7 @@
         <v>7</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C247" s="1">
         <v>0.3</v>
@@ -4418,7 +4550,7 @@
         <v>7</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C248" s="1">
         <v>0.3</v>
@@ -4429,10 +4561,13 @@
         <v>8</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C249" s="1">
-        <v>1</v>
+        <v>0.95</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,15 +4575,15 @@
         <v>8</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C250" s="1">
         <v>1</v>
       </c>
-      <c r="D250" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E250" s="18"/>
+      <c r="D250" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E250" s="13"/>
     </row>
     <row r="251" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
@@ -4516,18 +4651,21 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="C257" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D257" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>8</v>
       </c>
@@ -4538,7 +4676,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
@@ -4549,7 +4687,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>8</v>
       </c>
@@ -4560,7 +4698,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>8</v>
       </c>
@@ -4571,40 +4709,40 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C262" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C263" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C264" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>8</v>
       </c>
@@ -4615,7 +4753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>8</v>
       </c>
@@ -4626,7 +4764,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>8</v>
       </c>
@@ -4637,7 +4775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>8</v>
       </c>
@@ -4648,7 +4786,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>8</v>
       </c>
@@ -4659,18 +4797,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C270" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>8</v>
       </c>
@@ -4681,7 +4819,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>8</v>
       </c>
@@ -4692,7 +4830,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>8</v>
       </c>
@@ -4703,7 +4841,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>8</v>
       </c>
@@ -4714,7 +4852,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>8</v>
       </c>
@@ -4725,7 +4863,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>8</v>
       </c>
@@ -4736,7 +4874,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>8</v>
       </c>
@@ -4747,7 +4885,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>8</v>
       </c>
@@ -4758,84 +4896,87 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C279" s="1">
         <v>0.35</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C280" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C281" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C282" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C283" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D283" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C284" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C285" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>8</v>
       </c>
@@ -4845,8 +4986,11 @@
       <c r="C286" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D286" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>8</v>
       </c>
@@ -4856,15 +5000,16 @@
       <c r="C287" s="1">
         <v>0</v>
       </c>
+      <c r="D287" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D250:E250"/>
+  <mergeCells count="4">
     <mergeCell ref="D101:I101"/>
     <mergeCell ref="D104:I104"/>
     <mergeCell ref="D103:I103"/>
     <mergeCell ref="D102:I102"/>
-    <mergeCell ref="D192:F192"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C287">
     <cfRule type="colorScale" priority="110">
@@ -4914,26 +5059,26 @@
         <v>194</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
@@ -5029,7 +5174,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="L5" s="18" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
@@ -5040,7 +5185,7 @@
         <v>195</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
@@ -5060,7 +5205,7 @@
         <v>195</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
@@ -5122,7 +5267,7 @@
         <v>195</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
@@ -5170,7 +5315,7 @@
         <v>195</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -5186,7 +5331,7 @@
         <v>195</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
@@ -5202,7 +5347,7 @@
         <v>195</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>208</v>
@@ -5232,7 +5377,7 @@
         <v>195</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
@@ -5357,7 +5502,7 @@
         <v>195</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D24" s="19">
         <v>0</v>
@@ -5525,21 +5670,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="L5:O6"/>
-    <mergeCell ref="H15:H23"/>
-    <mergeCell ref="I15:I23"/>
-    <mergeCell ref="J15:J23"/>
-    <mergeCell ref="F24:F33"/>
-    <mergeCell ref="G24:G33"/>
-    <mergeCell ref="H24:H33"/>
-    <mergeCell ref="I24:I33"/>
-    <mergeCell ref="J24:J33"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C24:C33"/>
-    <mergeCell ref="C15:C23"/>
-    <mergeCell ref="D8:E14"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:E7"/>
     <mergeCell ref="L1:O4"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="J2:J7"/>
@@ -5556,8 +5686,23 @@
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="F8:F14"/>
     <mergeCell ref="G8:G14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C24:C33"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="D8:E14"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:E7"/>
+    <mergeCell ref="L5:O6"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="I15:I23"/>
+    <mergeCell ref="J15:J23"/>
+    <mergeCell ref="F24:F33"/>
+    <mergeCell ref="G24:G33"/>
+    <mergeCell ref="H24:H33"/>
+    <mergeCell ref="I24:I33"/>
+    <mergeCell ref="J24:J33"/>
   </mergeCells>
-  <conditionalFormatting sqref="D15 D8 D2 F2:J2">
+  <conditionalFormatting sqref="D8 D15 D2 F2:J2">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5635,7 +5780,7 @@
         <v>207</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5683,7 +5828,7 @@
         <v>209</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,7 +5836,7 @@
         <v>209</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5739,7 +5884,7 @@
         <v>209</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
